--- a/documents/lb_backlog.xlsx
+++ b/documents/lb_backlog.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="293">
   <si>
     <t>accepts payment methods: cc, paypal, btc, ideal, direct bank transfer ...
 Make your payment directly into our bank account. Please use your Order ID as the payment reference. Your order won’t be shipped until the funds have cleared in our account.
@@ -1043,7 +1043,19 @@
     <t>move object info in store page to center collumn?</t>
   </si>
   <si>
-    <t>discuss with girls</t>
+    <t>implement method to link/share product specific page in collection</t>
+  </si>
+  <si>
+    <t>discussed with girls, agreed, done</t>
+  </si>
+  <si>
+    <t>resize landing page images (object,image,download)</t>
+  </si>
+  <si>
+    <t>way too big right now</t>
+  </si>
+  <si>
+    <t>style css for IOS device</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1067,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1105,6 +1117,12 @@
       <sz val="10"/>
       <color rgb="FF252525"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1189,12 +1207,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1253,7 +1272,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2858,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3483,28 +3503,76 @@
         <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
         <v>28</v>
       </c>
+      <c r="B39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>272</v>
+      </c>
+      <c r="E39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
         <v>29</v>
       </c>
+      <c r="B40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
         <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3521,11 +3589,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D44">
       <formula1>$K$1:$K$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E57">
       <formula1>$L$1:$L$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documents/lb_backlog.xlsx
+++ b/documents/lb_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="requirements" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="status" sheetId="6" r:id="rId6"/>
     <sheet name="backlog" sheetId="7" r:id="rId7"/>
     <sheet name="models" sheetId="8" r:id="rId8"/>
+    <sheet name="optimisation" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="297">
   <si>
     <t>accepts payment methods: cc, paypal, btc, ideal, direct bank transfer ...
 Make your payment directly into our bank account. Please use your Order ID as the payment reference. Your order won’t be shipped until the funds have cleared in our account.
@@ -1056,6 +1057,18 @@
   </si>
   <si>
     <t>style css for IOS device</t>
+  </si>
+  <si>
+    <t>get more testimonials</t>
+  </si>
+  <si>
+    <t>show views/status/sells of products</t>
+  </si>
+  <si>
+    <t>better impressions of what people get when they buy</t>
+  </si>
+  <si>
+    <t>implement shopping cart</t>
   </si>
 </sst>
 </file>
@@ -1063,9 +1076,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0_);[Red]\(&quot;€&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1125,12 +1138,30 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -1215,7 +1246,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1248,29 +1279,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2076,14 +2110,14 @@
   <sheetData>
     <row r="7" spans="2:6">
       <c r="B7" s="8"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
@@ -2820,7 +2854,7 @@
   <dimension ref="B5:B11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2878,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2964,7 +2998,7 @@
       <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F12" t="s">
@@ -2987,7 +3021,7 @@
       <c r="D13" t="s">
         <v>146</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F13" t="s">
@@ -3010,7 +3044,7 @@
       <c r="D14" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F14" t="s">
@@ -3030,7 +3064,7 @@
       <c r="D15" t="s">
         <v>272</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F15" t="s">
@@ -3050,7 +3084,7 @@
       <c r="D16" t="s">
         <v>272</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F16" t="s">
@@ -3070,7 +3104,7 @@
       <c r="D17" t="s">
         <v>272</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F17" t="s">
@@ -3090,7 +3124,7 @@
       <c r="D18" t="s">
         <v>272</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F18" t="s">
@@ -3110,7 +3144,7 @@
       <c r="D19" t="s">
         <v>146</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="33" t="s">
         <v>59</v>
       </c>
       <c r="F19" t="s">
@@ -3130,7 +3164,7 @@
       <c r="D20" t="s">
         <v>272</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F20" t="s">
@@ -3150,7 +3184,7 @@
       <c r="D21" t="s">
         <v>146</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F21" t="s">
@@ -3170,7 +3204,7 @@
       <c r="D22" t="s">
         <v>272</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F22" t="s">
@@ -3193,7 +3227,7 @@
       <c r="D23" t="s">
         <v>273</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F23" t="s">
@@ -3213,7 +3247,7 @@
       <c r="D24" t="s">
         <v>272</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F24" t="s">
@@ -3233,7 +3267,7 @@
       <c r="D25" t="s">
         <v>146</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F25" t="s">
@@ -3253,7 +3287,7 @@
       <c r="D26" t="s">
         <v>146</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F26" t="s">
@@ -3276,7 +3310,7 @@
       <c r="D27" t="s">
         <v>146</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
@@ -3299,7 +3333,7 @@
       <c r="D28" t="s">
         <v>146</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s">
@@ -3319,7 +3353,7 @@
       <c r="D29" t="s">
         <v>273</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F29" t="s">
@@ -3339,7 +3373,7 @@
       <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F30" t="s">
@@ -3359,7 +3393,7 @@
       <c r="D31" t="s">
         <v>272</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F31" t="s">
@@ -3379,7 +3413,7 @@
       <c r="D32" t="s">
         <v>272</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F32" t="s">
@@ -3399,7 +3433,7 @@
       <c r="D33" t="s">
         <v>273</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F33" t="s">
@@ -3419,7 +3453,7 @@
       <c r="D34" t="s">
         <v>273</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F34" t="s">
@@ -3439,13 +3473,13 @@
       <c r="D35" t="s">
         <v>273</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F35" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="31" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3462,7 +3496,7 @@
       <c r="D36" t="s">
         <v>272</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F36" t="s">
@@ -3482,7 +3516,7 @@
       <c r="D37" t="s">
         <v>273</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F37" t="s">
@@ -3502,7 +3536,7 @@
       <c r="D38" t="s">
         <v>272</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="33" t="s">
         <v>58</v>
       </c>
       <c r="F38" t="s">
@@ -3525,7 +3559,7 @@
       <c r="D39" t="s">
         <v>272</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F39" t="s">
@@ -3545,7 +3579,7 @@
       <c r="D40" t="s">
         <v>272</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="35" t="s">
         <v>274</v>
       </c>
       <c r="F40" t="s">
@@ -3568,7 +3602,7 @@
       <c r="D41" t="s">
         <v>272</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F41" t="s">
@@ -3819,4 +3853,47 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/documents/lb_backlog.xlsx
+++ b/documents/lb_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="requirements" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="status" sheetId="6" r:id="rId6"/>
     <sheet name="backlog" sheetId="7" r:id="rId7"/>
     <sheet name="models" sheetId="8" r:id="rId8"/>
-    <sheet name="optimisation" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="344">
   <si>
     <t>accepts payment methods: cc, paypal, btc, ideal, direct bank transfer ...
 Make your payment directly into our bank account. Please use your Order ID as the payment reference. Your order won’t be shipped until the funds have cleared in our account.
@@ -382,10 +381,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Resolution (portrait)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>aspect ratio</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1059,16 +1054,161 @@
     <t>style css for IOS device</t>
   </si>
   <si>
-    <t>get more testimonials</t>
-  </si>
-  <si>
-    <t>show views/status/sells of products</t>
-  </si>
-  <si>
-    <t>better impressions of what people get when they buy</t>
-  </si>
-  <si>
-    <t>implement shopping cart</t>
+    <t>pix dens</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>aOS</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>iPhone 3</t>
+  </si>
+  <si>
+    <t> 320x240, 480x320, 800x480, 960x480, 1024x800, and 1024x768.</t>
+  </si>
+  <si>
+    <t>iPhone 4</t>
+  </si>
+  <si>
+    <t>status bar</t>
+  </si>
+  <si>
+    <t>nav bar</t>
+  </si>
+  <si>
+    <t>tab bar</t>
+  </si>
+  <si>
+    <t>iPhone 5</t>
+  </si>
+  <si>
+    <t>iPhone 6</t>
+  </si>
+  <si>
+    <t>iPhone 6+</t>
+  </si>
+  <si>
+    <t>real size</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>iPad retina</t>
+  </si>
+  <si>
+    <t>prijs</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>compress &amp; speed up fonts &gt; woff2</t>
+  </si>
+  <si>
+    <t>http://sth.name/2014/09/03/Speed-up-webfonts/</t>
+  </si>
+  <si>
+    <t>sourcing</t>
+  </si>
+  <si>
+    <t>photography</t>
+  </si>
+  <si>
+    <t>webbify</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>handling</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>postproduction</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>fee (euro/hr)</t>
+  </si>
+  <si>
+    <t>labour cost</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>printing</t>
+  </si>
+  <si>
+    <t>pre-printing</t>
+  </si>
+  <si>
+    <t>nexus5</t>
+  </si>
+  <si>
+    <t>create digital certificates for .stl downloads</t>
+  </si>
+  <si>
+    <t>http://stylecube.co.uk/article-Certificate-Of-Authenticity-1.php
+https://www.adobe.com/devnet-docs/acrobatetk/tools/DigSig/Acrobat_DigitalSignatures_in_PDF.pdf</t>
+  </si>
+  <si>
+    <t>title tags in collection html …</t>
+  </si>
+  <si>
+    <t>add "click for details" usability info</t>
+  </si>
+  <si>
+    <t>use max realestate for image on touch device &amp; landscape</t>
+  </si>
+  <si>
+    <t>css media query in devices.css (touch/landscape)</t>
+  </si>
+  <si>
+    <t>IOS8 doesn’t handle position: fixed (h1 and product nav)</t>
+  </si>
+  <si>
+    <t>menu btn, h1 title &amp; prev/next butts are not rendered in place</t>
+  </si>
+  <si>
+    <t>orientation change (touch) is messy</t>
+  </si>
+  <si>
+    <t>rotating mobile device back/forth leaves UI messy</t>
+  </si>
+  <si>
+    <t>remove "romanid" from json data</t>
+  </si>
+  <si>
+    <t>cleanup</t>
+  </si>
+  <si>
+    <t>tried with roman numbering but not prefered</t>
+  </si>
+  <si>
+    <t>fix product numbering on index.html</t>
+  </si>
+  <si>
+    <t>import 'id' from json</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1220,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.00_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1137,6 +1277,15 @@
       <color theme="11"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1147,19 +1296,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,15 +1387,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1298,16 +1455,53 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1650,59 +1844,59 @@
   <sheetData>
     <row r="3" spans="2:5" ht="18">
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
         <v>219</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>220</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="169">
@@ -1712,164 +1906,164 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="26">
       <c r="B26" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="39">
       <c r="B30" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
         <v>151</v>
-      </c>
-      <c r="C42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" t="s">
         <v>163</v>
-      </c>
-      <c r="C50" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -1877,12 +2071,12 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -1890,65 +2084,65 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
         <v>154</v>
-      </c>
-      <c r="C57" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
         <v>156</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
         <v>105</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
         <v>107</v>
-      </c>
-      <c r="C65" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
         <v>109</v>
-      </c>
-      <c r="C66" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
         <v>121</v>
-      </c>
-      <c r="C71" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2001,15 +2195,15 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2095,204 +2289,685 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:F18"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6">
+    <row r="1" spans="1:15" ht="18">
+      <c r="O1" s="34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" s="8"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32" t="s">
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="35">
+        <v>480</v>
+      </c>
+      <c r="D9" s="35">
+        <v>320</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <f>C9*E9</f>
+        <v>480</v>
+      </c>
+      <c r="G9" s="35">
+        <f>D9*E9</f>
+        <v>320</v>
+      </c>
+      <c r="H9" s="35">
+        <v>20</v>
+      </c>
+      <c r="I9" s="35">
+        <v>44</v>
+      </c>
+      <c r="J9" s="35">
+        <v>49</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="35">
+        <v>480</v>
+      </c>
+      <c r="D10" s="35">
+        <v>320</v>
+      </c>
+      <c r="E10" s="35">
+        <v>2</v>
+      </c>
+      <c r="F10" s="35">
+        <f>C10*E10</f>
+        <v>960</v>
+      </c>
+      <c r="G10" s="35">
+        <f>D10*E10</f>
+        <v>640</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="35">
+        <v>568</v>
+      </c>
+      <c r="D11" s="35">
+        <v>320</v>
+      </c>
+      <c r="E11" s="35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="35">
+        <f>C11*E11</f>
+        <v>1136</v>
+      </c>
+      <c r="G11" s="35">
+        <f>D11*E11</f>
+        <v>640</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="35">
+        <v>667</v>
+      </c>
+      <c r="D12" s="35">
+        <v>375</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2</v>
+      </c>
+      <c r="F12" s="35">
+        <f>C12*E12</f>
+        <v>1334</v>
+      </c>
+      <c r="G12" s="35">
+        <f>D12*E12</f>
+        <v>750</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="35">
+        <v>736</v>
+      </c>
+      <c r="D13" s="35">
+        <v>414</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <f>C13*E13</f>
+        <v>2208</v>
+      </c>
+      <c r="G13" s="35">
+        <f>D13*E13</f>
+        <v>1242</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="9"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1024</v>
+      </c>
+      <c r="D15" s="35">
+        <v>768</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2048</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1496</v>
+      </c>
+      <c r="E16" s="35">
+        <v>2</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="33"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="9"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="9"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="9"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="9"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="9"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="9"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1920</v>
+      </c>
+      <c r="D27" s="35">
+        <v>1080</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31">
+        <v>512</v>
+      </c>
+      <c r="H27" s="31">
+        <f>G27/C27*D27</f>
+        <v>288</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
+      <c r="C28" s="36">
+        <v>1136</v>
+      </c>
+      <c r="D28" s="36">
+        <v>640</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="12">
+      <c r="M28" s="14">
+        <f>C28/D28</f>
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1920</v>
+      </c>
+      <c r="D29" s="36">
+        <v>1080</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="14">
+        <f>C29/D29</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1280</v>
+      </c>
+      <c r="D30" s="36">
+        <v>720</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="14">
+        <f>C30/D30</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="36">
+        <v>960</v>
+      </c>
+      <c r="D32" s="36">
         <v>640</v>
       </c>
-      <c r="D9" s="12">
-        <v>1136</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="14">
-        <f>D9/C9</f>
-        <v>1.7749999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="14">
+        <f>C32/D32</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1334</v>
+      </c>
+      <c r="D33" s="36">
+        <v>750</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="14">
+        <f>C33/D33</f>
+        <v>1.7786666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1920</v>
+      </c>
+      <c r="D34" s="36">
         <v>1080</v>
       </c>
-      <c r="D10" s="12">
-        <v>1920</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" ref="F10:F11" si="0">D10/C10</f>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" s="14">
+        <f>C34/D34</f>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="12">
-        <v>720</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1280</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="0"/>
-        <v>1.7777777777777777</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="12">
-        <v>640</v>
-      </c>
-      <c r="D13" s="12">
-        <v>960</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" ref="F13:F15" si="1">D13/C13</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="12">
-        <v>750</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1334</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="1"/>
-        <v>1.7786666666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1080</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1920</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="1"/>
-        <v>1.7777777777777777</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
+    <row r="35" spans="2:13">
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C36" s="36">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="36">
         <v>768</v>
       </c>
-      <c r="D17" s="12">
-        <v>1024</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" ref="F17:F18" si="2">D17/C17</f>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M36" s="14">
+        <f>C36/D36</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
+    <row r="37" spans="2:13">
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C37" s="36">
+        <v>2048</v>
+      </c>
+      <c r="D37" s="36">
         <v>1536</v>
       </c>
-      <c r="D18" s="12">
-        <v>2048</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="2"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" s="14">
+        <f>C37/D37</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
+    <row r="38" spans="2:13">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2322,38 +2997,38 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15">
       <c r="A1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>214</v>
-      </c>
       <c r="C1" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1">
@@ -2364,135 +3039,135 @@
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1">
       <c r="A4" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>239</v>
       </c>
       <c r="K4" s="18">
         <v>0.5</v>
       </c>
       <c r="L4" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15">
       <c r="A5" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
         <v>242</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>243</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J5" t="s">
         <v>244</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" t="s">
-        <v>245</v>
       </c>
       <c r="K5" s="20">
         <v>1.75</v>
       </c>
       <c r="L5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
         <v>247</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>249</v>
-      </c>
-      <c r="J6" t="s">
-        <v>250</v>
       </c>
       <c r="K6" s="20">
         <v>1.5</v>
       </c>
       <c r="L6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="J7" t="s">
         <v>253</v>
-      </c>
-      <c r="J7" t="s">
-        <v>254</v>
       </c>
       <c r="K7" s="20">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
         <v>124</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>126</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>129</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2523,7 +3198,7 @@
     <row r="13" spans="1:13">
       <c r="K13" s="20"/>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2554,7 +3229,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -2574,68 +3249,68 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K16" s="20">
         <v>1.5</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
         <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" t="s">
         <v>174</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>175</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>176</v>
-      </c>
-      <c r="J18" t="s">
-        <v>177</v>
       </c>
       <c r="K18" s="20">
         <v>0.5</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
         <v>179</v>
       </c>
-      <c r="C19" t="s">
+      <c r="J19" t="s">
         <v>180</v>
-      </c>
-      <c r="J19" t="s">
-        <v>181</v>
       </c>
       <c r="K19" s="20">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2646,36 +3321,36 @@
     </row>
     <row r="22" spans="1:12">
       <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" t="s">
         <v>182</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J22" t="s">
-        <v>183</v>
       </c>
       <c r="K22" s="20">
         <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="C23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K23" s="20">
         <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2686,48 +3361,48 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
         <v>187</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>188</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G26" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J26" t="s">
-        <v>190</v>
       </c>
       <c r="K26" s="20">
         <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
         <v>191</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
         <v>192</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J27" t="s">
-        <v>193</v>
       </c>
       <c r="K27" s="20">
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2738,30 +3413,30 @@
     </row>
     <row r="30" spans="1:12">
       <c r="C30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
         <v>194</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J30" t="s">
-        <v>195</v>
       </c>
       <c r="K30" s="20">
         <v>0.5</v>
       </c>
       <c r="L30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
         <v>32</v>
@@ -2775,7 +3450,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
@@ -2790,7 +3465,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -2799,16 +3474,16 @@
         <v>78</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K34" s="20">
         <v>1.75</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2853,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2910,78 +3585,83 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="49.28515625" customWidth="1"/>
     <col min="3" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="J1" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="J2" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="J3" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="J4" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="J5" s="21" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
         <v>257</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>258</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
         <v>259</v>
       </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>260</v>
       </c>
-      <c r="F10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" s="41" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2990,21 +3670,21 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="41" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3013,21 +3693,21 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="41" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3036,19 +3716,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3056,15 +3736,15 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" t="s">
         <v>65</v>
       </c>
       <c r="F15" t="s">
@@ -3076,15 +3756,15 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" t="s">
         <v>65</v>
       </c>
       <c r="F16" t="s">
@@ -3096,15 +3776,15 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
         <v>65</v>
       </c>
       <c r="F17" t="s">
@@ -3119,12 +3799,12 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" t="s">
         <v>65</v>
       </c>
       <c r="F18" t="s">
@@ -3136,15 +3816,15 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F19" t="s">
@@ -3156,15 +3836,15 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F20" t="s">
@@ -3176,15 +3856,15 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
         <v>65</v>
       </c>
       <c r="F21" t="s">
@@ -3201,17 +3881,17 @@
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="33" t="s">
+      <c r="D22" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3225,13 +3905,13 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>274</v>
-      </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3244,14 +3924,14 @@
       <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3262,16 +3942,16 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
         <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3282,19 +3962,19 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
-      </c>
-      <c r="G26" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3305,19 +3985,19 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
-      </c>
-      <c r="G27" t="s">
-        <v>282</v>
+        <v>269</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3325,19 +4005,19 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3351,13 +4031,13 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3365,19 +4045,19 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
         <v>267</v>
-      </c>
-      <c r="C30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3385,19 +4065,19 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>274</v>
+      <c r="D31" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" t="s">
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3405,19 +4085,19 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
         <v>269</v>
-      </c>
-      <c r="C32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3425,19 +4105,19 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
       <c r="D33" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="35" t="s">
-        <v>274</v>
-      </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3445,19 +4125,19 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
+        <v>272</v>
+      </c>
+      <c r="E34" t="s">
         <v>273</v>
       </c>
-      <c r="E34" s="35" t="s">
-        <v>274</v>
-      </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3465,22 +4145,22 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>283</v>
-      </c>
-      <c r="C35" t="s">
-        <v>276</v>
-      </c>
-      <c r="D35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="F35" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3488,19 +4168,19 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" t="s">
+        <v>273</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3508,19 +4188,19 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="35" t="s">
-        <v>274</v>
-      </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3528,22 +4208,22 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" t="s">
-        <v>272</v>
-      </c>
-      <c r="E38" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
-      </c>
-      <c r="G38" t="s">
-        <v>289</v>
+        <v>267</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3551,19 +4231,19 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
-      <c r="D39" t="s">
-        <v>272</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>274</v>
+      <c r="D39" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" t="s">
+        <v>273</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3571,22 +4251,22 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="41" t="s">
         <v>290</v>
-      </c>
-      <c r="C40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" t="s">
-        <v>272</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="F40" t="s">
-        <v>268</v>
-      </c>
-      <c r="G40" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3594,36 +4274,230 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" t="s">
-        <v>272</v>
-      </c>
-      <c r="E41" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" t="s">
         <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
         <v>31</v>
       </c>
+      <c r="B42" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="48">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" t="s">
+        <v>273</v>
+      </c>
+      <c r="F47" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" t="s">
+        <v>273</v>
+      </c>
+      <c r="F48" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" t="s">
+        <v>273</v>
+      </c>
+      <c r="F49" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C53">
       <formula1>$J$1:$J$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D69">
       <formula1>$K$1:$K$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E56">
       <formula1>$L$1:$L$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -3639,13 +4513,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:M17"/>
+  <dimension ref="B6:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="2:13" ht="14" thickBot="1">
       <c r="D6" t="s">
@@ -3687,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="27">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G7" s="24">
         <v>2000</v>
@@ -3723,7 +4600,7 @@
       </c>
       <c r="F8" s="23">
         <f>C8*F7</f>
-        <v>2400</v>
+        <v>19200</v>
       </c>
       <c r="G8" s="23">
         <f>C8*G7</f>
@@ -3752,7 +4629,7 @@
       </c>
       <c r="F11" s="23">
         <f>G8-F8</f>
-        <v>45600</v>
+        <v>28800</v>
       </c>
       <c r="I11" s="23">
         <f>I8-H8</f>
@@ -3764,7 +4641,7 @@
       </c>
       <c r="L11" s="23">
         <f>SUM(F11:K11)</f>
-        <v>357600</v>
+        <v>340800</v>
       </c>
       <c r="M11" t="s">
         <v>55</v>
@@ -3773,7 +4650,7 @@
     <row r="12" spans="2:13" ht="14" thickBot="1">
       <c r="L12" s="23">
         <f>L11*M12</f>
-        <v>178800</v>
+        <v>170400</v>
       </c>
       <c r="M12" s="28">
         <v>0.5</v>
@@ -3835,61 +4712,260 @@
       </c>
       <c r="L16" s="29">
         <f>L11/G16</f>
-        <v>4.7301587301587302</v>
-      </c>
-    </row>
-    <row r="17" spans="12:12">
+        <v>4.5079365079365079</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
       <c r="L17" s="30">
         <f>L12/G16</f>
-        <v>2.3650793650793651</v>
+        <v>2.253968253968254</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="D28" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <f>C30*D29</f>
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <f>C30*E29</f>
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <f>C30*F29</f>
+        <v>160</v>
+      </c>
+      <c r="G30">
+        <f>C30*G29</f>
+        <v>320</v>
+      </c>
+      <c r="I30">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="G31">
+        <f>G30-E30</f>
+        <v>240</v>
+      </c>
+      <c r="I31">
+        <f>I30-G31</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="C37" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <f>D38*E38</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="46"/>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f>$E$38</f>
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <f>D39*E39</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="46"/>
+      <c r="C40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="46"/>
+      <c r="C41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E45" si="0">$E$38</f>
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <f>D41*E41</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="46"/>
+      <c r="C42" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <f>D42*E42</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="46"/>
+      <c r="C43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <f>D43*E43</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="46"/>
+      <c r="C44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <f>D44*E44</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="46"/>
+      <c r="C45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <f>D45*E45</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="F47">
+        <f>SUM(F38:F45)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B38:B45"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
